--- a/scan_54565.xlsx
+++ b/scan_54565.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>VAR601264039998</t>
+          <t>VAR 6012</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -624,11 +624,6 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>34/47</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PA</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -666,7 +661,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>VAR649764039998</t>
+          <t>VAR 6497</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -716,7 +711,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>VAR494464041990</t>
+          <t>VAR 4944</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -766,7 +761,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VAR640864039996</t>
+          <t>VAR 6408</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -816,7 +811,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VAR640964039996</t>
+          <t>VAR 6409</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -866,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>VAR640464041990</t>
+          <t>VAR 6404</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -916,7 +911,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>VAR640564041990</t>
+          <t>VAR 6405</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +961,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>VAR494964041990</t>
+          <t>VAR 4949</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1016,7 +1011,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>VAR654964039998</t>
+          <t>VAR 6549</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
